--- a/biology/Botanique/Parodia_mammulosa/Parodia_mammulosa.xlsx
+++ b/biology/Botanique/Parodia_mammulosa/Parodia_mammulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parodia mammulosa est une espèce de plantes succulentes de la famille des Cactaceae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parodia mammulosa est une plante vivace de forme sphérique avec un sommet aplati et la surface d'un vert foncé, atteignant un diamètre d'environ 15 cm. L'espèce présente environ 18 côtes verticales avec de gros tubercules pointus. Les épines radiales sont environ au nombre de 12, mesurant jusqu'à 1 cm de long, tandis que l'unique épine centrale atteint 2 cm. Les fleurs fleurissent au printemps et sont généralement de couleur jaune pâle, avec un diamètre d'environ 5 cm.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire d'Argentine, du Brésil (Rio Grande do Sul) et d'Uruguay.
 </t>
@@ -573,11 +589,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Parodia mammulosa (Lem.) N.P.Taylor[1].
-L'espèce a été initialement classée dans le genre Echinocactus sous le basionyme Echinocactus mammulosus Lem.[1].
-Parodia mammulosa a pour synonymes[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Parodia mammulosa (Lem.) N.P.Taylor.
+L'espèce a été initialement classée dans le genre Echinocactus sous le basionyme Echinocactus mammulosus Lem..
+Parodia mammulosa a pour synonymes :
 Echinocactus brasiliensis (Speg.) Werderm.
 Echinocactus floricomus Arechav.
 Echinocactus hypocrateriformis Otto &amp; A.Dietr.
